--- a/OnderzoekNaarDeBorden.xlsx
+++ b/OnderzoekNaarDeBorden.xlsx
@@ -4,13 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="temp" localSheetId="0">Blad1!$C$5:$D$9</definedName>
+    <definedName name="temp" localSheetId="0">Blad1!$C$48:$D$87</definedName>
+    <definedName name="temp_1" localSheetId="0">Blad1!$C$4:$D$43</definedName>
+    <definedName name="temp_2" localSheetId="0">Blad1!$F$4:$F$43</definedName>
+    <definedName name="temp_3" localSheetId="0">Blad1!$M$6:$N$43</definedName>
+    <definedName name="temp_4" localSheetId="0">Blad1!$R$4:$S$43</definedName>
+    <definedName name="temp_5" localSheetId="0">Blad1!$W$4:$X$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +29,49 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="temp" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Ruben\Google Drive\TI02\Project Robotica\Code\PythonCode\temp.txt" tab="0" semicolon="1">
+    <textPr codePage="437" sourceFile="C:\Users\Ruben\Google Drive\TI02\Project Robotica\Code\PythonCode\temp.txt" semicolon="1">
       <textFields count="2">
-        <textField type="text"/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="temp1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Ruben\Google Drive\TI02\Project Robotica\Code\PythonCode\temp.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="temp2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Ruben\Google Drive\TI02\Project Robotica\Code\PythonCode\temp.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="temp3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Ruben\Google Drive\TI02\Project Robotica\Code\PythonCode\temp.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="temp4" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Ruben\Google Drive\TI02\Project Robotica\Code\PythonCode\temp.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="temp5" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Ruben\Google Drive\TI02\Project Robotica\Code\PythonCode\temp.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
         <textField/>
       </textFields>
     </textPr>
@@ -35,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
   <si>
     <t>move_backward</t>
   </si>
@@ -52,42 +97,26 @@
     <t>turn_right</t>
   </si>
   <si>
-    <t>minval: -2660072960.0</t>
+    <t xml:space="preserve">minval </t>
   </si>
   <si>
-    <t xml:space="preserve"> maxval :1078913408.0</t>
-  </si>
-  <si>
-    <t>minval: -3980554240.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maxval :4664972800.0</t>
-  </si>
-  <si>
-    <t>minval: -4020714496.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maxval :1355030272.0</t>
-  </si>
-  <si>
-    <t>minval: -2794292224.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maxval :1124447616.0</t>
-  </si>
-  <si>
-    <t>minval: -3434764800.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maxval :1559520128.0</t>
+    <t>maxval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,9 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -136,7 +168,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_5" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,78 +454,1076 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D9"/>
+  <dimension ref="A3:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C6">
+        <v>-165460976</v>
+      </c>
+      <c r="D6">
+        <v>727688320</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-751759680</v>
+      </c>
+      <c r="I6">
+        <v>673625280</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>-821174464</v>
+      </c>
+      <c r="N6">
+        <v>1825199744</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>-953477248</v>
+      </c>
+      <c r="S6">
+        <v>856489600</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>-928354496</v>
+      </c>
+      <c r="X6">
+        <v>547280448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>-0.112053200603</v>
+      </c>
+      <c r="D7">
+        <v>0.45565935969400001</v>
+      </c>
+      <c r="H7">
+        <v>-0.341739565134</v>
+      </c>
+      <c r="I7">
+        <v>0.25720697641399998</v>
+      </c>
+      <c r="M7">
+        <v>-0.30493432283400002</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>-0.36402982473399997</v>
+      </c>
+      <c r="S7">
+        <v>0.34224173426600002</v>
+      </c>
+      <c r="W7">
+        <v>-0.391565263271</v>
+      </c>
+      <c r="X7">
+        <v>0.20239144563700001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>-201.32659912099999</v>
+      </c>
+      <c r="D8">
+        <v>971238080</v>
+      </c>
+      <c r="H8">
+        <v>605521088</v>
+      </c>
+      <c r="I8">
+        <v>2118656512</v>
+      </c>
+      <c r="M8">
+        <v>139171632</v>
+      </c>
+      <c r="N8">
+        <v>2118656512</v>
+      </c>
+      <c r="R8">
+        <v>306332448</v>
+      </c>
+      <c r="S8">
+        <v>2118656512</v>
+      </c>
+      <c r="W8">
+        <v>588701952</v>
+      </c>
+      <c r="X8">
+        <v>2118656384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>-3.4311917261200003E-5</v>
+      </c>
+      <c r="D9">
+        <v>0.52765953540800004</v>
+      </c>
+      <c r="H9">
+        <v>0.133033707738</v>
+      </c>
+      <c r="I9">
+        <v>0.42858403921100002</v>
+      </c>
+      <c r="M9">
+        <v>3.71140874922E-2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>7.1533255279099997E-2</v>
+      </c>
+      <c r="S9">
+        <v>0.46596017479899998</v>
+      </c>
+      <c r="W9">
+        <v>0.12862752378</v>
+      </c>
+      <c r="X9">
+        <v>0.40300154686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1770895104</v>
+      </c>
+      <c r="D10">
+        <v>3474779904</v>
+      </c>
+      <c r="H10">
+        <v>4996997632</v>
+      </c>
+      <c r="I10">
+        <v>14120261632</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>14120261632</v>
+      </c>
+      <c r="R10">
+        <v>3817608448</v>
+      </c>
+      <c r="S10">
+        <v>14120261632</v>
+      </c>
+      <c r="W10">
+        <v>6470547456</v>
+      </c>
+      <c r="X10">
+        <v>14120262656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.96224850416200003</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>-104143760</v>
+      </c>
+      <c r="D14">
+        <v>1399514624</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>-1816690944</v>
+      </c>
+      <c r="I14">
+        <v>1804899840</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>-1678280064</v>
+      </c>
+      <c r="N14">
+        <v>1205083648</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>-1908873728</v>
+      </c>
+      <c r="S14">
+        <v>1676921216</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>-1804962048</v>
+      </c>
+      <c r="X14">
+        <v>2262259456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>-9.7933247685400002E-2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>-0.53192275762600005</v>
+      </c>
+      <c r="I15">
+        <v>0.52088373899499996</v>
+      </c>
+      <c r="M15">
+        <v>-0.46116280555700001</v>
+      </c>
+      <c r="N15">
+        <v>0.37439557909999999</v>
+      </c>
+      <c r="R15">
+        <v>-0.52933013439200005</v>
+      </c>
+      <c r="S15">
+        <v>0.54389619827299995</v>
+      </c>
+      <c r="W15">
+        <v>-0.546164274216</v>
+      </c>
+      <c r="X15">
+        <v>0.62905442714699999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>-184.54937744099999</v>
+      </c>
+      <c r="D16">
+        <v>1615538304</v>
+      </c>
+      <c r="H16">
+        <v>1235899008</v>
+      </c>
+      <c r="I16">
+        <v>4551744512</v>
+      </c>
+      <c r="M16">
+        <v>196800496</v>
+      </c>
+      <c r="N16">
+        <v>4551745024</v>
+      </c>
+      <c r="R16">
+        <v>692346048</v>
+      </c>
+      <c r="S16">
+        <v>4551745024</v>
+      </c>
+      <c r="W16">
+        <v>1427350528</v>
+      </c>
+      <c r="X16">
+        <v>4551745024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>-7.8264092735500006E-5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.17573212087199999</v>
+      </c>
+      <c r="I17">
+        <v>0.6698808074</v>
+      </c>
+      <c r="M17">
+        <v>4.2857103049799998E-2</v>
+      </c>
+      <c r="N17">
+        <v>0.61732935905499997</v>
+      </c>
+      <c r="R17">
+        <v>0.106558389962</v>
+      </c>
+      <c r="S17">
+        <v>0.66018420457799998</v>
+      </c>
+      <c r="W17">
+        <v>0.19706751406199999</v>
+      </c>
+      <c r="X17">
+        <v>0.74970924854300003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2940922368</v>
+      </c>
+      <c r="H18">
+        <v>3412163840</v>
+      </c>
+      <c r="I18">
+        <v>12950866944</v>
+      </c>
+      <c r="M18">
+        <v>4788316160</v>
+      </c>
+      <c r="N18">
+        <v>11701260288</v>
+      </c>
+      <c r="R18">
+        <v>2857740544</v>
+      </c>
+      <c r="S18">
+        <v>12444990464</v>
+      </c>
+      <c r="W18">
+        <v>3030572800</v>
+      </c>
+      <c r="X18">
+        <v>13227361280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0.67227208614300005</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0.68783903121900003</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0.54276680946400002</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C22">
+        <v>-278616928</v>
+      </c>
+      <c r="D22">
+        <v>744839616</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>-1244583936</v>
+      </c>
+      <c r="I22">
+        <v>3667288576</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>-1401724544</v>
+      </c>
+      <c r="N22">
+        <v>1097441280</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>-1332202240</v>
+      </c>
+      <c r="S22">
+        <v>1256493696</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>-1141813504</v>
+      </c>
+      <c r="X22">
+        <v>2335081984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>-0.167561918497</v>
+      </c>
+      <c r="D23">
+        <v>0.32891258597400003</v>
+      </c>
+      <c r="H23">
+        <v>-0.36812514066699997</v>
+      </c>
+      <c r="I23">
+        <v>0.999999880791</v>
+      </c>
+      <c r="M23">
+        <v>-0.37263175845099999</v>
+      </c>
+      <c r="N23">
+        <v>0.34123954176900001</v>
+      </c>
+      <c r="R23">
+        <v>-0.35232692956900002</v>
+      </c>
+      <c r="S23">
+        <v>0.38506218791000002</v>
+      </c>
+      <c r="W23">
+        <v>-0.33790987729999999</v>
+      </c>
+      <c r="X23">
+        <v>0.61350077390699997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>-335.54431152299998</v>
+      </c>
+      <c r="D24">
+        <v>1400514176</v>
+      </c>
+      <c r="H24">
+        <v>2750103296</v>
+      </c>
+      <c r="I24">
+        <v>5696894464</v>
+      </c>
+      <c r="M24">
+        <v>662395904</v>
+      </c>
+      <c r="N24">
+        <v>5696893952</v>
+      </c>
+      <c r="R24">
+        <v>1681647232</v>
+      </c>
+      <c r="S24">
+        <v>5696893952</v>
+      </c>
+      <c r="W24">
+        <v>2943961088</v>
+      </c>
+      <c r="X24">
+        <v>5696893952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>-8.59833089635E-5</v>
+      </c>
+      <c r="D25">
+        <v>0.463260293007</v>
+      </c>
+      <c r="H25">
+        <v>0.35121577978099999</v>
+      </c>
+      <c r="I25">
+        <v>0.99999994039499995</v>
+      </c>
+      <c r="M25">
+        <v>0.11714586615600001</v>
+      </c>
+      <c r="N25">
+        <v>0.653564929962</v>
+      </c>
+      <c r="R25">
+        <v>0.245530545712</v>
+      </c>
+      <c r="S25">
+        <v>0.64415925741199997</v>
+      </c>
+      <c r="W25">
+        <v>0.36655530333500003</v>
+      </c>
+      <c r="X25">
+        <v>0.76122349500700004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>4476396544</v>
+      </c>
+      <c r="D26">
+        <v>6374157312</v>
+      </c>
+      <c r="H26">
+        <v>764</v>
+      </c>
+      <c r="I26">
+        <v>11727785984</v>
+      </c>
+      <c r="M26">
+        <v>4996998144</v>
+      </c>
+      <c r="N26">
+        <v>10927229952</v>
+      </c>
+      <c r="R26">
+        <v>4277489152</v>
+      </c>
+      <c r="S26">
+        <v>11271548928</v>
+      </c>
+      <c r="W26">
+        <v>3032169728</v>
+      </c>
+      <c r="X26">
+        <v>11543176192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1.3489353989400001E-7</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.85657876730000004</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0.90742361545600003</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0.48665890097600001</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C30">
+        <v>-221940736</v>
+      </c>
+      <c r="D30">
+        <v>645211008</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>-1152234112</v>
+      </c>
+      <c r="I30">
+        <v>1256493696</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>-1401770368</v>
+      </c>
+      <c r="N30">
+        <v>1050226240</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>-1568739456</v>
+      </c>
+      <c r="S30">
+        <v>2903446528</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>-1228927744</v>
+      </c>
+      <c r="X30">
+        <v>1853511168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>-0.148376584053</v>
+      </c>
+      <c r="D31">
+        <v>0.32007822394399998</v>
+      </c>
+      <c r="H31">
+        <v>-0.36193829774899999</v>
+      </c>
+      <c r="I31">
+        <v>0.38506218791000002</v>
+      </c>
+      <c r="M31">
+        <v>-0.409634709358</v>
+      </c>
+      <c r="N31">
+        <v>0.34194019436799999</v>
+      </c>
+      <c r="R31">
+        <v>-0.47096863388999999</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>-0.39903596043599998</v>
+      </c>
+      <c r="X31">
+        <v>0.54729801416400004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>-218.103805542</v>
+      </c>
+      <c r="D32">
+        <v>1084053632</v>
+      </c>
+      <c r="H32">
+        <v>1439788160</v>
+      </c>
+      <c r="I32">
+        <v>3806874368</v>
+      </c>
+      <c r="M32">
+        <v>296785312</v>
+      </c>
+      <c r="N32">
+        <v>3806874368</v>
+      </c>
+      <c r="R32">
+        <v>735580672</v>
+      </c>
+      <c r="S32">
+        <v>3806874368</v>
+      </c>
+      <c r="W32">
+        <v>1496579072</v>
+      </c>
+      <c r="X32">
+        <v>3806874112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>-1.1915046343300001E-4</v>
+      </c>
+      <c r="D33">
+        <v>0.43781426549000002</v>
+      </c>
+      <c r="H33">
+        <v>0.222802907228</v>
+      </c>
+      <c r="I33">
+        <v>0.56474274396900004</v>
+      </c>
+      <c r="M33">
+        <v>5.7645849883599998E-2</v>
+      </c>
+      <c r="N33">
+        <v>0.56953632831599998</v>
+      </c>
+      <c r="R33">
+        <v>0.12168288976</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>0.22563174367</v>
+      </c>
+      <c r="X33">
+        <v>0.67890280485200005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>3242366976</v>
+      </c>
+      <c r="D34">
+        <v>4652218880</v>
+      </c>
+      <c r="H34">
+        <v>4277489152</v>
+      </c>
+      <c r="I34">
+        <v>12437443584</v>
+      </c>
+      <c r="M34">
+        <v>3817608192</v>
+      </c>
+      <c r="N34">
+        <v>12437444608</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>12547168256</v>
+      </c>
+      <c r="W34">
+        <v>3724150784</v>
+      </c>
+      <c r="X34">
+        <v>12708571136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.92264705896400001</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>0.73020917177199995</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
+      <c r="C38">
+        <v>-272558304</v>
+      </c>
+      <c r="D38">
+        <v>750057152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>-1123696896</v>
+      </c>
+      <c r="I38">
+        <v>2335081984</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>-1632109568</v>
+      </c>
+      <c r="N38">
+        <v>1229874304</v>
+      </c>
+      <c r="P38" t="s">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>-1572299776</v>
+      </c>
+      <c r="S38">
+        <v>1853511424</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W38">
+        <v>-1435670528</v>
+      </c>
+      <c r="X38">
+        <v>3950289920</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>-0.188395887613</v>
+      </c>
+      <c r="D39">
+        <v>0.31900036334999998</v>
+      </c>
+      <c r="H39">
+        <v>-0.298428595066</v>
+      </c>
+      <c r="I39">
+        <v>0.61350077390699997</v>
+      </c>
+      <c r="M39">
+        <v>-0.43223148584400001</v>
+      </c>
+      <c r="N39">
+        <v>0.36145824193999998</v>
+      </c>
+      <c r="R39">
+        <v>-0.39417612552600001</v>
+      </c>
+      <c r="S39">
+        <v>0.54729807376899997</v>
+      </c>
+      <c r="W39">
+        <v>-0.39055043458900002</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>-369.09875488300003</v>
+      </c>
+      <c r="D40">
+        <v>1542085504</v>
+      </c>
+      <c r="H40">
+        <v>3210707968</v>
+      </c>
+      <c r="I40">
+        <v>6870691840</v>
+      </c>
+      <c r="M40">
+        <v>585166720</v>
+      </c>
+      <c r="N40">
+        <v>6870691840</v>
+      </c>
+      <c r="R40">
+        <v>1891536128</v>
+      </c>
+      <c r="S40">
+        <v>6870691328</v>
+      </c>
+      <c r="W40">
+        <v>3329383680</v>
+      </c>
+      <c r="X40">
+        <v>6870691328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>-1.12169720524E-4</v>
+      </c>
+      <c r="D41">
+        <v>0.46341717243199998</v>
+      </c>
+      <c r="H41">
+        <v>0.38504895567899999</v>
+      </c>
+      <c r="I41">
+        <v>0.76122349500700004</v>
+      </c>
+      <c r="M41">
+        <v>0.101137429476</v>
+      </c>
+      <c r="N41">
+        <v>0.70624506473500004</v>
+      </c>
+      <c r="R41">
+        <v>0.25783854722999999</v>
+      </c>
+      <c r="S41">
+        <v>0.69832038879400005</v>
+      </c>
+      <c r="W41">
+        <v>0.37975209951400002</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>5385546240</v>
+      </c>
+      <c r="D42">
+        <v>7408739840</v>
+      </c>
+      <c r="H42">
+        <v>3032169728</v>
+      </c>
+      <c r="I42">
+        <v>10752336896</v>
+      </c>
+      <c r="M42">
+        <v>6293108224</v>
+      </c>
+      <c r="N42">
+        <v>10971056128</v>
+      </c>
+      <c r="R42">
+        <v>3724150272</v>
+      </c>
+      <c r="S42">
+        <v>11380396032</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>11467692032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0.48665890097600001</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0.68528228998200003</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0.73020911216700002</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>